--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3232971.690863683</v>
+        <v>3225954.675971973</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>88.47998969135071</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>254.229990230095</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.7419800545114</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>107.6120290366233</v>
+        <v>57.74591802561068</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.0331708029444</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>320.4372744744567</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.4745188564439</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100.5088970641055</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>81.68913743188274</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>116.5605274488291</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>204.526339153957</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>64.32381826160567</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.66638868105258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.94855232855294</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>80.87604375209692</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>24.00558422131722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>147.3604984678194</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>12.05100180681453</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.0901248372224</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68888611471668</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498023</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>22.0367599875981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>197.0041047104392</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.5435612426379</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1736.748491543651</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1736.748491543651</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.282733282571</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.1434013067596</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1481.844651382451</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C5" t="n">
-        <v>1112.882134442039</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D5" t="n">
-        <v>1112.882134442039</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="E5" t="n">
-        <v>727.0938818437949</v>
+        <v>523.2580967368515</v>
       </c>
       <c r="F5" t="n">
-        <v>316.1079770541873</v>
+        <v>112.2721919472439</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1481.844651382451</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>603.4305111065548</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.514859931282</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.514859931282</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1655.051849797787</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1269.263597199543</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>858.2776924099353</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.514859931282</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>846.3978353108172</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1305.326886885503</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1305.326886885503</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1016.198248099061</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>761.5137598931742</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W13" t="n">
-        <v>472.0965898562135</v>
+        <v>846.3978353108172</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>846.3978353108172</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>846.3978353108172</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,10 +5290,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>757.5434800531123</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>757.5434800531123</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>468.1263100161517</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9567375132466</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C19" t="n">
-        <v>674.9567375132466</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>273.72523663794</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.380168451998</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1084.594753241504</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1084.594753241504</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1084.594753241504</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>1084.594753241504</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>856.6052023434863</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y19" t="n">
-        <v>856.6052023434863</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,13 +5788,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4382.384669597912</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4382.384669597912</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4154.395118699895</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3933.602539556365</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1306.148193632761</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>1306.148193632761</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>1306.148193632761</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.158642734744</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.5547239186418</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C28" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188989</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>685.2031887488815</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>685.2031887488815</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>685.2031887488815</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1150.147272122122</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1150.147272122122</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1150.147272122122</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>860.7301020851612</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>406.6977765080454</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>259.807829010135</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>259.807829010135</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>109.3898205580783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273991</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904385</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>554.6108700904385</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6928,10 +6928,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.468242641992</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>755.183133481126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>755.183133481126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033467</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>844.0289544965622</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>616.0394035985448</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7396,49 +7396,49 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,13 +7447,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3263.786115209752</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3571.106248489714</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3900.968876153746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1476.656917035076</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1476.656917035076</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1252.871501824582</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1252.871501824582</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1252.871501824582</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1252.871501824582</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1024.881950926565</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.0893717830344</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1076.136810185348</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.136810185348</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>786.7196401483878</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>786.7196401483878</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.9270610048577</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.6026921294541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.9087390531959</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>38.86002301949898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.7151863772029</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>73.64859338270668</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>116.2316725517205</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>169.9624708877619</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>81.71101324462035</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>84.59001010593046</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>119.2544213025507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.8834278533844</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>205.3613086464804</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>262.5174141152738</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>74.18706259056981</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>98.36824365745747</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49452851487243</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W40" t="n">
-        <v>221.8341122218743</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>87.9275924161947</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>89.23324768813814</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="G2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541051</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541049</v>
@@ -26355,7 +26355,7 @@
         <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26481,16 +26481,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151391</v>
+        <v>-149432.2302151389</v>
       </c>
       <c r="C6" t="n">
-        <v>440535.6489994053</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994051</v>
+        <v>440535.6489994052</v>
       </c>
       <c r="E6" t="n">
-        <v>18298.49357618965</v>
+        <v>17323.90231646801</v>
       </c>
       <c r="F6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.938793364</v>
       </c>
       <c r="G6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933643</v>
       </c>
       <c r="H6" t="n">
-        <v>543458.5300530861</v>
+        <v>542483.9387933646</v>
       </c>
       <c r="I6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="J6" t="n">
-        <v>367035.310860493</v>
+        <v>366060.7196007713</v>
       </c>
       <c r="K6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.938793364</v>
       </c>
       <c r="L6" t="n">
-        <v>543458.5300530858</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="M6" t="n">
-        <v>408657.514819249</v>
+        <v>407682.923559527</v>
       </c>
       <c r="N6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="O6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="P6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933641</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>266.2030519293322</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>73.52226824003986</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>104.9676753345258</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>306.1721409841716</v>
+        <v>356.0382519951843</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>88.69405058113833</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.13204062090063</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>216.6498708177386</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>93.34689554633832</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>50.80735538553381</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>118.0757562879893</v>
       </c>
     </row>
     <row r="11">
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30513,16 +30513,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-4.872902029150353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.6157249145282</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.92177183827</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>541.1395634276691</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>255.4503488645142</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>532.9342021211282</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225954.675971973</v>
+        <v>3230893.938821004</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.47998969135071</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>115.7273181429296</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>120.7419800545114</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>57.74591802561068</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>252.6255656050526</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.4372744744567</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>260.8447765395497</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>134.0618870358387</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.5088970641055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>116.5605274488291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22.01216490429513</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.9955446623097</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>64.32381826160567</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>197.4852479619985</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4312,7 +4312,7 @@
         <v>1838.715370239897</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1480.449671633147</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4515,22 +4515,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>391.878965009939</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="Y4" t="n">
         <v>391.878965009939</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.312047941846</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.312047941846</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>909.0463493350958</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>523.2580967368515</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>112.2721919472439</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D8" t="n">
-        <v>1655.051849797787</v>
+        <v>1281.586091536707</v>
       </c>
       <c r="E8" t="n">
-        <v>1269.263597199543</v>
+        <v>895.797838938463</v>
       </c>
       <c r="F8" t="n">
-        <v>858.2776924099353</v>
+        <v>484.8119341488554</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>470.8885300874463</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4998,13 +4998,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>592.7129366954861</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>592.7129366954861</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>592.7129366954861</v>
       </c>
       <c r="Y10" t="n">
         <v>371.9203575519559</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,13 +5068,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.3978353108172</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829103</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W13" t="n">
-        <v>846.3978353108172</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X13" t="n">
-        <v>846.3978353108172</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3978353108172</v>
+        <v>376.9270045185178</v>
       </c>
     </row>
     <row r="14">
@@ -5284,7 +5284,7 @@
         <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5542,10 +5542,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>273.72523663794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181194</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1299.436222111439</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1299.436222111439</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6180,16 +6180,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.9038434870658</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>156.2086957630882</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,37 +6916,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6961,25 +6961,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7642,19 +7642,19 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>169.9624708877619</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>203.697490484742</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.1420986615183</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>84.59001010593046</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.06231309639077</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.75693659211572</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>90.51214010776182</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541051</v>
-      </c>
       <c r="I2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="N2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
     </row>
     <row r="3">
@@ -26426,16 +26426,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,13 +26447,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151389</v>
+        <v>-149432.230215139</v>
       </c>
       <c r="C6" t="n">
+        <v>440535.6489994053</v>
+      </c>
+      <c r="D6" t="n">
         <v>440535.6489994054</v>
       </c>
-      <c r="D6" t="n">
-        <v>440535.6489994052</v>
-      </c>
       <c r="E6" t="n">
-        <v>17323.90231646801</v>
+        <v>18201.03445021741</v>
       </c>
       <c r="F6" t="n">
-        <v>542483.938793364</v>
+        <v>543361.0709271135</v>
       </c>
       <c r="G6" t="n">
-        <v>542483.9387933643</v>
+        <v>543361.070927114</v>
       </c>
       <c r="H6" t="n">
-        <v>542483.9387933646</v>
+        <v>543361.070927114</v>
       </c>
       <c r="I6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="J6" t="n">
-        <v>366060.7196007713</v>
+        <v>366937.8517345208</v>
       </c>
       <c r="K6" t="n">
-        <v>542483.938793364</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="L6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="M6" t="n">
-        <v>407682.923559527</v>
+        <v>408560.0556932763</v>
       </c>
       <c r="N6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="O6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="P6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271135</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>266.2030519293322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>104.9676753345258</v>
+        <v>111.4067897366017</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>356.0382519951843</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>117.1055350734164</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>59.30821556748145</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.13204062090063</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>93.34689554633832</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>63.07799622480741</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>118.0757562879893</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.0757562879893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.274964074157802e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209233</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
